--- a/RTL/tangnano20k_vdp_cartridge_step7/src/ws2812_led/count.xlsx
+++ b/RTL/tangnano20k_vdp_cartridge_step7/src/ws2812_led/count.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\TangCartMSX\RTL\tangnano20k_vdp_cartridge_step3\src\ws2812_led\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\TangCartMSX\RTL\tangnano20k_vdp_cartridge_step7\src\ws2812_led\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>= 14'd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1clkの時間</t>
     <rPh sb="5" eb="7">
       <t>ジカン</t>
@@ -94,6 +90,10 @@
   </si>
   <si>
     <t>ns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>= 15'd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -430,7 +430,7 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -443,20 +443,20 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>42.954540000000001</v>
+        <v>85.909080000000003</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2">
         <f>1000000000/(C2*1000*1000)</f>
-        <v>23.280426236667882</v>
+        <v>11.640213118333941</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.15">
@@ -519,11 +519,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <f>ROUND(C4*$C$2*1000000/1000000000,0)</f>
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -538,11 +538,11 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <f>ROUND(C5*$C$2*1000000/1000000000,0)</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -557,11 +557,11 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <f>ROUND(C6*$C$2*1000000/1000000000,0)</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -576,11 +576,11 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <f>ROUND(C7*$C$2*1000000/1000000000,0)</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
@@ -595,18 +595,18 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <f>ROUNDUP(C8*$C$2*1000000/1000000000,0)</f>
-        <v>12887</v>
+        <v>25773</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="G14">
         <f>D14*$G$2</f>
-        <v>300014.85291193897</v>
+        <v>300003.21269882069</v>
       </c>
     </row>
   </sheetData>
